--- a/va_facility_data_2025-02-20/Victor J. Saracini Department of Veterans Affairs Outpatient Clinic - Facility Data.xlsx"; filename*=UTF-8''Victor%20J.%20Saracini%20Department%20of%20Veterans%20Affairs%20Outpatient%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Victor J. Saracini Department of Veterans Affairs Outpatient Clinic - Facility Data.xlsx"; filename*=UTF-8''Victor%20J.%20Saracini%20Department%20of%20Veterans%20Affairs%20Outpatient%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R3b55fbf7f41340cfaedbfafc7fe46bb7"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R536544b1fa414fcea1d230f38705a65c"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ref46862727024a16a34483670bd3120e"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R7a305fab094a48d382d80fcbfab94f07"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R74e68e3f3941486c8ec7218adae24350"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rba3ffbbd6d8f436eb3765b32be3ecad3"/>
   </x:sheets>
 </x:workbook>
 </file>
